--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177AE1BA-C556-4724-9A95-C7FC49EA34AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923CFFD-0C95-4AE7-9EE0-689F55CD9314}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1332" yWindow="468" windowWidth="17580" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>A</t>
   </si>
@@ -292,54 +292,6 @@
   </si>
   <si>
     <t>JumpTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:MainGamePanel;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeVisibleTrigger:#0;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock island</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeVisibleTrigger:#0;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:MainGamePanel;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy ship</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IslandHasBeenUnlockedTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPGuideShowedTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterGuideShowedTrigger</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -588,6 +540,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,20 +582,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,13 +920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -1065,100 +1017,6 @@
       </c>
       <c r="F4" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1204,16 +1062,16 @@
       <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1225,22 +1083,22 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15">
-      <c r="B5" s="20"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -1250,14 +1108,14 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="18"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="2:15" ht="15">
-      <c r="B6" s="20"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1267,14 +1125,14 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="18"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:15" ht="15">
-      <c r="B7" s="20"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -1284,14 +1142,14 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="18"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="2:15" ht="15">
-      <c r="B8" s="20"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1301,14 +1159,14 @@
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="18"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="2:15" ht="15">
-      <c r="B9" s="20"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -1318,11 +1176,11 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="19"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="12" spans="2:15" s="7" customFormat="1" ht="15.6">
       <c r="B12" s="1" t="s">
@@ -1340,22 +1198,22 @@
       <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="6">
@@ -1367,25 +1225,25 @@
       <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B14" s="20"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="6">
         <v>1</v>
       </c>
@@ -1395,19 +1253,19 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B15" s="20"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -1417,19 +1275,19 @@
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="20"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -1439,19 +1297,19 @@
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B17" s="20"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -1461,19 +1319,25 @@
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="F4:F9"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="B13:B17"/>
@@ -1484,12 +1348,6 @@
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="F4:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
